--- a/docs/Mapping_casi_uso/cittadinanza/Citt_049.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_049.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -466,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -834,7 +846,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>35</v>
@@ -857,7 +869,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>35</v>
@@ -903,7 +915,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>35</v>
@@ -926,7 +938,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>35</v>
@@ -1018,7 +1030,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>35</v>
@@ -1041,7 +1053,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>35</v>
@@ -1064,7 +1076,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>35</v>
@@ -1087,7 +1099,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>35</v>
@@ -1426,19 +1438,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1449,19 +1461,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1472,16 +1484,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1495,7 +1507,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1504,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1518,7 +1530,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1527,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1541,16 +1553,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1564,16 +1576,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1587,7 +1599,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1596,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1610,7 +1622,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1619,7 +1631,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1633,19 +1645,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1656,967 +1668,1059 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E90" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="D96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_049.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_049.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -113,178 +113,196 @@
     <t>testoLibero</t>
   </si>
   <si>
+    <t xml:space="preserve">Officiante </t>
+  </si>
+  <si>
+    <t>Ufficiale di stato civile delegato al giuramento di cittadinanza</t>
+  </si>
+  <si>
+    <t>evento.datiEventoCittadinanza</t>
+  </si>
+  <si>
+    <t>officiante</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Lista Intestatari</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Identificativo unico nazionale</t>
-  </si>
-  <si>
-    <t>idANPR</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Formato Data Nascita</t>
-  </si>
-  <si>
-    <t>idFormatodata</t>
-  </si>
-  <si>
-    <t>Formato Data Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>formatodata</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Località estera</t>
-  </si>
-  <si>
-    <t>localitaEsteraNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalità - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
     <t>Comprensione</t>
   </si>
   <si>
     <t>tipoImpedimento</t>
-  </si>
-  <si>
-    <t>Residenza non nota</t>
-  </si>
-  <si>
-    <t>flagIrreperibile</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Provincia AIRE</t>
@@ -478,14 +496,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.49609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
@@ -754,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>35</v>
@@ -766,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -774,22 +792,22 @@
         <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -797,22 +815,22 @@
         <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -820,22 +838,22 @@
         <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
@@ -843,22 +861,22 @@
         <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -866,22 +884,22 @@
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -889,22 +907,22 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -912,22 +930,22 @@
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -935,22 +953,22 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
@@ -958,22 +976,22 @@
         <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -981,22 +999,22 @@
         <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
@@ -1004,22 +1022,22 @@
         <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
@@ -1027,22 +1045,22 @@
         <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -1050,22 +1068,22 @@
         <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -1073,22 +1091,22 @@
         <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
@@ -1096,22 +1114,22 @@
         <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -1119,22 +1137,22 @@
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
@@ -1142,22 +1160,22 @@
         <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
@@ -1165,22 +1183,22 @@
         <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -1188,22 +1206,22 @@
         <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
@@ -1211,22 +1229,22 @@
         <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -1234,22 +1252,22 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -1257,22 +1275,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -1280,22 +1298,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
@@ -1303,22 +1321,22 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
@@ -1326,22 +1344,22 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
@@ -1349,22 +1367,22 @@
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -1372,39 +1390,39 @@
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1415,19 +1433,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1438,19 +1456,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1461,19 +1479,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1484,19 +1502,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1507,19 +1525,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1530,19 +1548,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1571,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1594,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1617,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1640,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1663,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1686,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1709,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1714,1013 +1732,1657 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="D124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>20</v>
       </c>
     </row>
